--- a/src/outputs/countries_indicators.xlsx
+++ b/src/outputs/countries_indicators.xlsx
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -853,13 +853,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1386,13 +1386,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1907,13 +1907,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2082,13 +2082,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -2249,13 +2249,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2416,13 +2416,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2770,13 +2770,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3124,13 +3124,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -3466,13 +3466,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3639,13 +3639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3812,13 +3812,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D20" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3993,13 +3993,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D21" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -4174,13 +4174,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -4341,13 +4341,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -4508,13 +4508,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D24" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -4693,13 +4693,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -4878,13 +4878,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -5049,13 +5049,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C27" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -5220,13 +5220,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D28" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -5395,13 +5395,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D29" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D31" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -5916,13 +5916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C32" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D32" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6087,13 +6087,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C33" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D33" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6258,13 +6258,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C34" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D35" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6600,13 +6600,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D37" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6910,13 +6910,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D38" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7087,13 +7087,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D39" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7264,13 +7264,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D40" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D41" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7610,13 +7610,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C42" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D42" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7785,13 +7785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C43" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D43" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7960,13 +7960,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C44" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D44" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -8137,13 +8137,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C45" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D45" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -8314,13 +8314,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D46" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -8485,13 +8485,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D47" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -8656,13 +8656,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C48" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D48" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -8831,13 +8831,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C49" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D49" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -9006,13 +9006,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C50" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D50" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -9189,13 +9189,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C51" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D51" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -9372,13 +9372,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C52" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -9543,13 +9543,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C53" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -9714,13 +9714,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C54" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D54" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -9887,13 +9887,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C55" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D55" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -10060,13 +10060,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C56" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D56" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -10233,13 +10233,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D57" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -10406,13 +10406,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C58" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D58" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -10579,13 +10579,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C59" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -10752,13 +10752,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C60" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D60" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -10925,13 +10925,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C61" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D61" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -11098,10 +11098,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C62" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D62" t="n">
         <v>41</v>
@@ -11273,10 +11273,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C63" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D63" t="n">
         <v>41</v>
@@ -11448,13 +11448,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C64" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D64" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -11631,13 +11631,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C65" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D65" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -11814,13 +11814,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C66" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D66" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -11995,13 +11995,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C67" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D67" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -12176,13 +12176,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D68" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -12337,13 +12337,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D69" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -12498,13 +12498,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C70" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D70" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
@@ -12647,13 +12647,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C71" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D71" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
@@ -12796,13 +12796,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C72" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D72" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -12971,13 +12971,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C73" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D73" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -13146,13 +13146,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C74" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D74" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -13321,13 +13321,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C75" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D75" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -13496,13 +13496,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C76" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D76" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -13673,13 +13673,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C77" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D77" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -13850,13 +13850,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C78" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D78" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -14027,13 +14027,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C79" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D79" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -14204,13 +14204,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C80" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D80" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -14377,13 +14377,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C81" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D81" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -14550,13 +14550,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C82" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D82" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -14723,13 +14723,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C83" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D83" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -14896,13 +14896,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C84" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D84" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -15069,13 +15069,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C85" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D85" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -15242,13 +15242,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C86" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D86" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -15415,13 +15415,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C87" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D87" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -15588,10 +15588,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C88" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D88" t="n">
         <v>39</v>
@@ -15755,10 +15755,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C89" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D89" t="n">
         <v>39</v>
@@ -15922,13 +15922,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C90" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D90" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -16095,13 +16095,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C91" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D91" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -16268,13 +16268,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C92" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D92" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -16441,13 +16441,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C93" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D93" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -16614,13 +16614,13 @@
         </is>
       </c>
       <c r="B94" t="n">
+        <v>24</v>
+      </c>
+      <c r="C94" t="n">
         <v>19</v>
       </c>
-      <c r="C94" t="n">
-        <v>21</v>
-      </c>
       <c r="D94" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -16785,13 +16785,13 @@
         </is>
       </c>
       <c r="B95" t="n">
+        <v>24</v>
+      </c>
+      <c r="C95" t="n">
         <v>19</v>
       </c>
-      <c r="C95" t="n">
-        <v>21</v>
-      </c>
       <c r="D95" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -16956,13 +16956,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C96" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D96" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -17141,13 +17141,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C97" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D97" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -17326,13 +17326,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C98" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D98" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -17503,13 +17503,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C99" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D99" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -17680,13 +17680,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C100" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D100" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -17853,13 +17853,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C101" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D101" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -18026,13 +18026,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C102" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D102" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -18201,13 +18201,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C103" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D103" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -18376,13 +18376,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C104" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D104" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -18551,13 +18551,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C105" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D105" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -18726,13 +18726,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C106" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D106" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -18901,13 +18901,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C107" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D107" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -19076,13 +19076,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C108" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D108" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
@@ -19227,13 +19227,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C109" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D109" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
@@ -19378,13 +19378,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C110" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D110" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -19553,13 +19553,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C111" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D111" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -19728,13 +19728,13 @@
         </is>
       </c>
       <c r="B112" t="n">
+        <v>21</v>
+      </c>
+      <c r="C112" t="n">
         <v>16</v>
       </c>
-      <c r="C112" t="n">
-        <v>18</v>
-      </c>
       <c r="D112" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -19901,13 +19901,13 @@
         </is>
       </c>
       <c r="B113" t="n">
+        <v>21</v>
+      </c>
+      <c r="C113" t="n">
         <v>16</v>
       </c>
-      <c r="C113" t="n">
-        <v>18</v>
-      </c>
       <c r="D113" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -20074,13 +20074,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C114" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D114" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -20247,13 +20247,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C115" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D115" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -20420,13 +20420,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C116" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D116" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -20577,13 +20577,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C117" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D117" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -20734,13 +20734,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C118" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D118" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -20907,13 +20907,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C119" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D119" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -21080,13 +21080,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C120" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D120" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -21261,13 +21261,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C121" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D121" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -21442,13 +21442,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C122" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D122" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -21617,13 +21617,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C123" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D123" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -21792,13 +21792,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C124" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D124" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -21965,13 +21965,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C125" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D125" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -22138,13 +22138,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C126" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D126" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -22311,13 +22311,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C127" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D127" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -22484,13 +22484,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C128" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D128" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -22657,13 +22657,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C129" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D129" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -22830,13 +22830,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C130" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D130" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -22997,13 +22997,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C131" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D131" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -23164,13 +23164,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C132" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D132" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -23337,13 +23337,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C133" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D133" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -23510,13 +23510,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C134" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D134" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -23683,13 +23683,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C135" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D135" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -23856,13 +23856,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C136" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D136" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -24029,13 +24029,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C137" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D137" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -24202,13 +24202,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C138" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D138" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -24375,13 +24375,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C139" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D139" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -24548,13 +24548,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C140" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D140" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -24723,13 +24723,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C141" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D141" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -24898,13 +24898,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C142" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D142" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -25071,13 +25071,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C143" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D143" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -25244,13 +25244,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C144" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D144" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -25417,13 +25417,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C145" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D145" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -25590,13 +25590,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C146" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D146" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -25763,13 +25763,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C147" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D147" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -25936,13 +25936,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C148" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D148" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -26123,13 +26123,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C149" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D149" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -26310,13 +26310,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C150" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D150" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -26485,13 +26485,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C151" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D151" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -26660,13 +26660,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C152" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D152" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -26835,13 +26835,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C153" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D153" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -27010,13 +27010,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C154" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D154" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -27183,13 +27183,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C155" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D155" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -27356,13 +27356,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C156" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D156" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -27527,13 +27527,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C157" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D157" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -27698,13 +27698,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C158" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D158" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -27871,13 +27871,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C159" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D159" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -28044,13 +28044,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C160" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D160" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -28219,13 +28219,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C161" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D161" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -28394,13 +28394,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C162" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D162" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -28565,13 +28565,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C163" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D163" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -28736,13 +28736,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C164" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D164" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -28911,13 +28911,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C165" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D165" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -29086,13 +29086,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C166" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D166" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -29261,13 +29261,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C167" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D167" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -29436,13 +29436,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C168" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D168" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -29611,13 +29611,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C169" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D169" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -29786,13 +29786,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C170" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D170" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -29957,13 +29957,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C171" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D171" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -30128,13 +30128,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C172" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D172" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -30313,13 +30313,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C173" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D173" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -30498,13 +30498,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C174" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D174" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -30673,13 +30673,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C175" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D175" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -30848,13 +30848,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C176" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D176" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -31023,13 +31023,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C177" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D177" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -31198,13 +31198,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C178" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D178" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -31375,13 +31375,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C179" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D179" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -31552,13 +31552,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C180" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D180" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -31725,13 +31725,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C181" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D181" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -31898,13 +31898,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C182" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D182" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -32071,13 +32071,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C183" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D183" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -32244,13 +32244,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C184" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D184" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -32429,13 +32429,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C185" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D185" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -32614,13 +32614,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C186" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D186" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -32789,13 +32789,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C187" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D187" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -32964,13 +32964,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C188" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D188" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -33137,13 +33137,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C189" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D189" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -33310,13 +33310,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C190" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D190" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -33483,13 +33483,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C191" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D191" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -33656,13 +33656,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C192" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D192" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -33829,13 +33829,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C193" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D193" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -34002,13 +34002,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C194" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D194" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -34177,13 +34177,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C195" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D195" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -34352,13 +34352,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C196" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D196" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -34523,13 +34523,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C197" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D197" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -34694,13 +34694,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C198" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D198" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -34867,13 +34867,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C199" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D199" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -35040,13 +35040,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C200" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D200" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -35213,13 +35213,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C201" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D201" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -35386,13 +35386,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C202" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D202" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -35559,13 +35559,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C203" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D203" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -35732,13 +35732,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C204" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D204" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -35907,13 +35907,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C205" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D205" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -36082,13 +36082,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C206" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D206" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -36255,13 +36255,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C207" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D207" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -36428,13 +36428,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C208" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D208" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -36597,13 +36597,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C209" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D209" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -36766,13 +36766,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C210" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D210" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -36951,13 +36951,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C211" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D211" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -37136,13 +37136,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C212" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D212" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -37323,13 +37323,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C213" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D213" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -37510,13 +37510,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C214" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D214" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -37685,13 +37685,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C215" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D215" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -37860,13 +37860,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C216" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D216" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -38031,13 +38031,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C217" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D217" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -38202,13 +38202,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C218" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D218" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -38375,13 +38375,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C219" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D219" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -38548,13 +38548,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C220" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D220" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -38731,13 +38731,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C221" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D221" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -38914,13 +38914,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C222" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D222" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -39087,13 +39087,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C223" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D223" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -39260,13 +39260,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C224" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D224" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -39433,13 +39433,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C225" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D225" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -39606,13 +39606,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C226" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D226" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -39777,13 +39777,13 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C227" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D227" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -39948,13 +39948,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C228" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D228" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -40121,13 +40121,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C229" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D229" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -40294,13 +40294,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C230" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D230" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -40467,13 +40467,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C231" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D231" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -40640,13 +40640,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C232" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D232" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -40823,13 +40823,13 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C233" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D233" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -41006,13 +41006,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C234" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D234" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -41179,13 +41179,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C235" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D235" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -41352,13 +41352,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C236" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D236" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -41525,13 +41525,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C237" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D237" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -41698,13 +41698,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C238" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D238" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -41875,13 +41875,13 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C239" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D239" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -42052,13 +42052,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C240" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D240" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -42225,13 +42225,13 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C241" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D241" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -42398,13 +42398,13 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C242" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D242" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -42573,13 +42573,13 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C243" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D243" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -42748,13 +42748,13 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C244" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D244" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -42931,13 +42931,13 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C245" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D245" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -43114,13 +43114,13 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C246" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D246" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -43293,13 +43293,13 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C247" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D247" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -43472,13 +43472,13 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C248" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D248" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -43645,13 +43645,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C249" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D249" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -43818,13 +43818,13 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C250" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D250" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -43991,13 +43991,13 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C251" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D251" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -44164,13 +44164,13 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C252" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D252" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -44335,13 +44335,13 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C253" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D253" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -44506,13 +44506,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C254" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D254" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -44677,13 +44677,13 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C255" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D255" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -44848,13 +44848,13 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C256" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D256" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -45025,13 +45025,13 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C257" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D257" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -45202,13 +45202,13 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C258" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D258" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -45377,13 +45377,13 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C259" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D259" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -45552,13 +45552,13 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C260" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D260" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -45729,13 +45729,13 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C261" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D261" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -45906,13 +45906,13 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C262" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D262" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -46065,13 +46065,13 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C263" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D263" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -46224,13 +46224,13 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C264" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D264" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -46391,13 +46391,13 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C265" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D265" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -46558,13 +46558,13 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C266" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D266" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -46729,13 +46729,13 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C267" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D267" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -46900,13 +46900,13 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C268" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D268" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -47073,13 +47073,13 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C269" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D269" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -47246,13 +47246,13 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C270" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D270" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -47417,13 +47417,13 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C271" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D271" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -47588,13 +47588,13 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C272" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D272" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -47761,13 +47761,13 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C273" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D273" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -47934,13 +47934,13 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C274" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D274" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -48119,13 +48119,13 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C275" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D275" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -48304,13 +48304,13 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C276" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D276" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -48479,13 +48479,13 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C277" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D277" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -48654,13 +48654,13 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C278" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D278" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -48839,13 +48839,13 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C279" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D279" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -49024,13 +49024,13 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C280" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D280" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -49197,13 +49197,13 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C281" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D281" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -49370,13 +49370,13 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C282" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D282" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -49543,13 +49543,13 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C283" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D283" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -49716,13 +49716,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C284" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D284" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -49889,13 +49889,13 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C285" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D285" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -50062,13 +50062,13 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C286" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D286" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -50235,13 +50235,13 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C287" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D287" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -50408,13 +50408,13 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C288" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D288" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -50581,13 +50581,13 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C289" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D289" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -50754,13 +50754,13 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C290" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D290" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -50927,13 +50927,13 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C291" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D291" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -51100,13 +51100,13 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C292" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D292" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -51269,13 +51269,13 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C293" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D293" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -51438,13 +51438,13 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C294" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D294" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -51611,13 +51611,13 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C295" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D295" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -51784,13 +51784,13 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C296" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D296" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -51957,13 +51957,13 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C297" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D297" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -52130,13 +52130,13 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C298" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D298" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -52303,13 +52303,13 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C299" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D299" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -52476,13 +52476,13 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C300" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D300" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -52645,13 +52645,13 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C301" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D301" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -52814,13 +52814,13 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C302" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D302" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -52989,13 +52989,13 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C303" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D303" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -53164,13 +53164,13 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C304" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D304" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -53339,13 +53339,13 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C305" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D305" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -53514,13 +53514,13 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C306" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D306" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -53689,13 +53689,13 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C307" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D307" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -53864,13 +53864,13 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C308" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D308" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -54039,13 +54039,13 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C309" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D309" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -54214,13 +54214,13 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C310" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D310" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -54401,13 +54401,13 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C311" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D311" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -54588,13 +54588,13 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C312" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D312" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -54761,13 +54761,13 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C313" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D313" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -54934,13 +54934,13 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C314" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D314" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -55109,13 +55109,13 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C315" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D315" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -55284,13 +55284,13 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C316" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D316" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -55461,13 +55461,13 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C317" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D317" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -55638,13 +55638,13 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C318" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D318" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -55809,13 +55809,13 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C319" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D319" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -55980,13 +55980,13 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C320" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D320" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -56153,13 +56153,13 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C321" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D321" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -56326,13 +56326,13 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C322" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D322" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -56509,13 +56509,13 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C323" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D323" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -56692,13 +56692,13 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C324" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D324" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -56865,13 +56865,13 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C325" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D325" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -57038,13 +57038,13 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C326" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D326" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -57215,13 +57215,13 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C327" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D327" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -57392,13 +57392,13 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C328" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D328" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -57567,13 +57567,13 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C329" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D329" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -57742,13 +57742,13 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C330" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D330" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -57923,13 +57923,13 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C331" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D331" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -58104,13 +58104,13 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C332" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D332" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -58277,13 +58277,13 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C333" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D333" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -58450,13 +58450,13 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C334" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D334" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -58633,13 +58633,13 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C335" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D335" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -58816,13 +58816,13 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C336" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D336" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -58999,13 +58999,13 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C337" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D337" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -59182,13 +59182,13 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C338" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D338" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -59365,13 +59365,13 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C339" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D339" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -59548,13 +59548,13 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C340" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D340" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -59719,13 +59719,13 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C341" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D341" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
